--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:53:37+00:00</t>
+    <t>2022-01-18T14:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:54:46+00:00</t>
+    <t>2022-01-19T12:18:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T12:18:41+00:00</t>
+    <t>2022-01-20T09:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T09:35:42+00:00</t>
+    <t>2022-01-25T15:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T15:16:25+00:00</t>
+    <t>2022-02-01T15:37:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T15:37:33+00:00</t>
+    <t>2022-02-08T09:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:26:27+00:00</t>
+    <t>2022-02-08T09:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:35:25+00:00</t>
+    <t>2022-02-08T09:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:37:29+00:00</t>
+    <t>2022-02-08T10:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:01:45+00:00</t>
+    <t>2022-02-08T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:08:35+00:00</t>
+    <t>2022-02-08T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T13:47:48+00:00</t>
+    <t>2022-02-08T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:21:10+00:00</t>
+    <t>2022-02-10T10:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:05:03+00:00</t>
+    <t>2022-02-10T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:07:35+00:00</t>
+    <t>2022-02-10T10:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:17:28+00:00</t>
+    <t>2022-02-10T10:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:18:13+00:00</t>
+    <t>2022-02-10T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:14:34+00:00</t>
+    <t>2022-02-10T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:16:39+00:00</t>
+    <t>2022-02-14T08:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:27:15+00:00</t>
+    <t>2022-02-14T08:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:33:39+00:00</t>
+    <t>2022-02-14T09:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:12:03+00:00</t>
+    <t>2022-02-14T09:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:13:01+00:00</t>
+    <t>2022-02-14T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -662,42 +662,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -250,53 +250,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -904,7 +904,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -923,25 +923,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -992,13 +992,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1007,12 +1007,12 @@
         <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1035,13 +1035,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1080,19 +1080,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1104,7 +1104,7 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -1120,10 +1120,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1197,10 +1197,10 @@
         <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
@@ -1225,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1300,7 +1300,7 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -331,8 +331,69 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>valuePeriod</t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x].start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-year-month-day}
+</t>
+  </si>
+  <si>
+    <t>Primitive Type dateTime</t>
+  </si>
+  <si>
+    <t>A date, date-time or partial date (e.g. just year or year + month).  If hours and minutes are specified, a time zone SHALL be populated. The format is a union of the schema types gYear, gYearMonth, date and dateTime. Seconds must be provided due to schema type constraints but may be zero-filled and may be ignored.                 Dates SHALL be valid dates.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
+  </si>
+  <si>
+    <t>Extension.value[x].end</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>Period.end</t>
   </si>
 </sst>
 </file>
@@ -653,7 +714,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -662,9 +723,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -672,7 +733,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1282,16 +1343,14 @@
         <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>99</v>
@@ -1306,10 +1365,518 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -342,10 +345,19 @@
 </t>
   </si>
   <si>
+    <t>Extension.value[x]:valuePeriod</t>
+  </si>
+  <si>
     <t>valuePeriod</t>
   </si>
   <si>
+    <t>Extension.value[x]:valuePeriod.id</t>
+  </si>
+  <si>
     <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valuePeriod.extension</t>
   </si>
   <si>
     <t>Extension.value[x].extension</t>
@@ -364,6 +376,9 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>Extension.value[x]:valuePeriod.start</t>
+  </si>
+  <si>
     <t>Extension.value[x].start</t>
   </si>
   <si>
@@ -385,6 +400,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valuePeriod.end</t>
   </si>
   <si>
     <t>Extension.value[x].end</t>
@@ -714,7 +732,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -723,42 +741,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -870,93 +888,96 @@
       <c r="AJ1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
@@ -965,38 +986,41 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>81</v>
@@ -1004,199 +1028,205 @@
       <c r="L3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>95</v>
@@ -1207,98 +1237,101 @@
       <c r="M5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
+      <c r="N5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R5" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>101</v>
@@ -1306,99 +1339,102 @@
       <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>101</v>
@@ -1406,99 +1442,102 @@
       <c r="L7" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>81</v>
@@ -1506,377 +1545,389 @@
       <c r="L8" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -920,7 +924,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>7</v>
@@ -986,7 +990,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -997,10 +1001,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1011,7 +1015,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1023,13 +1027,13 @@
         <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1080,13 +1084,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1095,15 +1099,15 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1126,13 +1130,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1171,19 +1175,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1195,7 +1199,7 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1203,10 +1207,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1214,10 +1218,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1229,16 +1233,16 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1288,13 +1292,13 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>75</v>
@@ -1303,15 +1307,15 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1322,7 +1326,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1334,13 +1338,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1379,43 +1383,43 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>75</v>
@@ -1425,7 +1429,7 @@
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>75</v>
@@ -1437,13 +1441,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1494,30 +1498,30 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1528,7 +1532,7 @@
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -1540,13 +1544,13 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1597,13 +1601,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -1612,19 +1616,19 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1643,16 +1647,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1690,19 +1694,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1714,18 +1718,18 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1736,7 +1740,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -1748,16 +1752,16 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1807,19 +1811,19 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -1827,10 +1831,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1841,7 +1845,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1853,16 +1857,16 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -1912,19 +1916,19 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>75</v>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -338,84 +338,8 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.extension</t>
-  </si>
-  <si>
-    <t>Extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.start</t>
-  </si>
-  <si>
-    <t>Extension.value[x].start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-year-month-day}
-</t>
-  </si>
-  <si>
-    <t>Primitive Type dateTime</t>
-  </si>
-  <si>
-    <t>A date, date-time or partial date (e.g. just year or year + month).  If hours and minutes are specified, a time zone SHALL be populated. The format is a union of the schema types gYear, gYearMonth, date and dateTime. Seconds must be provided due to schema type constraints but may be zero-filled and may be ignored.                 Dates SHALL be valid dates.</t>
-  </si>
-  <si>
-    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
-  </si>
-  <si>
-    <t>Period.start</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.end</t>
-  </si>
-  <si>
-    <t>Extension.value[x].end</t>
-  </si>
-  <si>
-    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
-  </si>
-  <si>
-    <t>Period.end</t>
   </si>
 </sst>
 </file>
@@ -736,7 +660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -745,17 +669,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.90234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1383,14 +1307,16 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>101</v>
@@ -1405,533 +1331,10 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -338,8 +338,84 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valuePeriod</t>
+  </si>
+  <si>
+    <t>valuePeriod</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valuePeriod.id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valuePeriod.extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valuePeriod.start</t>
+  </si>
+  <si>
+    <t>Extension.value[x].start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-year-month-day}
+</t>
+  </si>
+  <si>
+    <t>Primitive Type dateTime</t>
+  </si>
+  <si>
+    <t>A date, date-time or partial date (e.g. just year or year + month).  If hours and minutes are specified, a time zone SHALL be populated. The format is a union of the schema types gYear, gYearMonth, date and dateTime. Seconds must be provided due to schema type constraints but may be zero-filled and may be ignored.                 Dates SHALL be valid dates.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valuePeriod.end</t>
+  </si>
+  <si>
+    <t>Extension.value[x].end</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>Period.end</t>
   </si>
 </sst>
 </file>
@@ -660,7 +736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -669,17 +745,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1307,16 +1383,14 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>101</v>
@@ -1331,10 +1405,533 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="122">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -338,30 +338,11 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.value[x]:valuePeriod</t>
-  </si>
-  <si>
-    <t>valuePeriod</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.id</t>
-  </si>
-  <si>
     <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.extension</t>
   </si>
   <si>
     <t>Extension.value[x].extension</t>
@@ -380,9 +361,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x]:valuePeriod.start</t>
-  </si>
-  <si>
     <t>Extension.value[x].start</t>
   </si>
   <si>
@@ -404,9 +382,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 be-inv-year-month-day:date SHALL be of format YYYY-MM-DD {empty() or toString().length()=10}</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valuePeriod.end</t>
   </si>
   <si>
     <t>Extension.value[x].end</t>
@@ -736,7 +711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -745,7 +720,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1383,14 +1358,16 @@
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>101</v>
@@ -1405,7 +1382,7 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>100</v>
@@ -1413,14 +1390,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1441,13 +1416,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1498,7 +1473,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1510,29 +1485,29 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -1544,15 +1519,17 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -1589,31 +1566,31 @@
         <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>86</v>
@@ -1624,18 +1601,18 @@
         <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1647,16 +1624,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1694,39 +1671,39 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>119</v>
@@ -1752,16 +1729,16 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1811,7 +1788,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1823,114 +1800,9 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK11" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="85">
   <si>
     <t>Property</t>
   </si>
@@ -127,117 +127,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -512,10 +401,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -711,7 +600,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -722,1088 +611,973 @@
   <cols>
     <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="95.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -146,6 +146,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -189,10 +193,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -742,7 +742,7 @@
         <v>42</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>38</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -764,7 +764,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -776,13 +776,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -833,13 +833,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -848,15 +848,15 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -879,13 +879,13 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -924,19 +924,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -948,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -967,10 +967,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -1044,10 +1044,10 @@
         <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
@@ -1075,7 +1075,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1150,7 +1150,7 @@
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
@@ -1178,7 +1178,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1190,13 +1190,13 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1247,13 +1247,13 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
@@ -1262,7 +1262,7 @@
         <v>38</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1293,7 +1293,7 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>72</v>
@@ -1340,19 +1340,19 @@
         <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -1364,10 +1364,10 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1386,7 +1386,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -1463,7 +1463,7 @@
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
@@ -1491,7 +1491,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -1568,7 +1568,7 @@
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="122">
   <si>
     <t>Property</t>
   </si>
@@ -126,7 +126,118 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ServiceRequest</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -600,7 +711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -611,973 +722,1088 @@
   <cols>
     <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="95.90234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>38</v>
+      <c r="G1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>62</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-ext-validity-period.xlsx
+++ b/branches/StructureDefinition-be-ext-validity-period.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="124">
   <si>
     <t>Property</t>
   </si>
@@ -60,13 +60,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Belgium (http://hl7belgium.org)</t>
+  </si>
+  <si>
+    <t>Message-Structure (message-structure@ehealth.fgov.be(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>element:ServiceRequest</t>
+  </si>
+  <si>
+    <t>element:RequestGroup</t>
+  </si>
+  <si>
+    <t>element:MedicationRequest</t>
   </si>
   <si>
     <t>ID</t>
@@ -524,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -600,21 +606,19 @@
       <c r="A9" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>15</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>17</v>
@@ -702,6 +706,22 @@
       </c>
       <c r="B22" t="s" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -760,115 +780,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -880,26 +900,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>7</v>
@@ -910,900 +930,900 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
